--- a/listado/listado.xlsx
+++ b/listado/listado.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://hpecds-my.sharepoint.com/personal/ivan_lopes_hpecds_com/Documents/Escritorio/Proyectos/PYTHON/Minerales/listado/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="33" documentId="8_{BF913F14-711E-4A72-9AA6-0DBA256660F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7C0AC570-D590-42B1-B840-88C7A4CC8BED}"/>
+  <xr:revisionPtr revIDLastSave="47" documentId="8_{BF913F14-711E-4A72-9AA6-0DBA256660F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{761AAAA8-F429-4DD6-AFA9-7B697B4070CA}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{FAF7EB69-D90E-49A7-9967-A375AF76700A}"/>
+    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="13776" xr2:uid="{FAF7EB69-D90E-49A7-9967-A375AF76700A}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="23">
   <si>
     <t>codigo</t>
   </si>
@@ -81,6 +81,30 @@
   </si>
   <si>
     <t>Dolvine</t>
+  </si>
+  <si>
+    <t>Quartzite deposit</t>
+  </si>
+  <si>
+    <t>Granite deposit</t>
+  </si>
+  <si>
+    <t>gold (ore), corundum (raw), borase (ore)</t>
+  </si>
+  <si>
+    <t>taranite (raw), corundum (raw), gold (ore), beryl (raw)</t>
+  </si>
+  <si>
+    <t>aluminum (ore), gold (ore), agricium (ore), bexalite (raw), titanium (ore), hephaestanite (raw)</t>
+  </si>
+  <si>
+    <t>corundum (raw), hephaestanite (raw), gold (ore)</t>
+  </si>
+  <si>
+    <t>titanium (ore),hephaestanite (raw), bexalite (raw), agricium (ore), taranite (ore)</t>
+  </si>
+  <si>
+    <t>material</t>
   </si>
 </sst>
 </file>
@@ -465,10 +489,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{596C391F-3C4A-4A9D-B5FF-93CA2C3EE8B4}">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -486,6 +510,9 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
@@ -564,6 +591,9 @@
       <c r="C8" t="s">
         <v>7</v>
       </c>
+      <c r="D8" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
@@ -575,6 +605,9 @@
       <c r="C9" t="s">
         <v>7</v>
       </c>
+      <c r="D9" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
@@ -586,9 +619,40 @@
       <c r="C10" t="s">
         <v>7</v>
       </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11">
+        <v>1820</v>
+      </c>
+      <c r="C11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C12" s="1"/>
+      <c r="A12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12">
+        <v>1920</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C17" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/listado/listado.xlsx
+++ b/listado/listado.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24334"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://hpecds-my.sharepoint.com/personal/ivan_lopes_hpecds_com/Documents/Escritorio/Proyectos/PYTHON/Minerales/listado/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Star Citizen\SC_info\Herramientas\Mineria---calculadora\listado\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="47" documentId="8_{BF913F14-711E-4A72-9AA6-0DBA256660F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{761AAAA8-F429-4DD6-AFA9-7B697B4070CA}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C150DDDF-9F8F-414D-9A59-51EE6FFE015A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="13776" xr2:uid="{FAF7EB69-D90E-49A7-9967-A375AF76700A}"/>
+    <workbookView xWindow="11745" yWindow="-12630" windowWidth="12675" windowHeight="12210" xr2:uid="{FAF7EB69-D90E-49A7-9967-A375AF76700A}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -27,16 +27,17 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
+    </ext>
+    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
+      <xlwcv:version setVersion="1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="31">
   <si>
     <t>codigo</t>
   </si>
@@ -105,13 +106,37 @@
   </si>
   <si>
     <t>material</t>
+  </si>
+  <si>
+    <t>Pyro V, Fuego</t>
+  </si>
+  <si>
+    <t>Pyro V, Fuego, Fairo</t>
+  </si>
+  <si>
+    <t>ra</t>
+  </si>
+  <si>
+    <t>beryl (raw), aluminium (ore), taranite (raw), gold (ore), borase (ore)</t>
+  </si>
+  <si>
+    <t>Beradom</t>
+  </si>
+  <si>
+    <t>Pyro V, Fairo</t>
+  </si>
+  <si>
+    <t>taranite (raw), titanium (ore), gold (ore), laranite (raw), bexalite (raw)</t>
+  </si>
+  <si>
+    <t>ubicacion</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -148,9 +173,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -489,18 +515,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{596C391F-3C4A-4A9D-B5FF-93CA2C3EE8B4}">
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="3" width="15.77734375" customWidth="1"/>
+    <col min="1" max="3" width="15.75" customWidth="1"/>
+    <col min="4" max="4" width="32.5" customWidth="1"/>
+    <col min="5" max="5" width="13.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -513,8 +541,11 @@
       <c r="D1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -524,8 +555,11 @@
       <c r="C2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -536,8 +570,11 @@
         <v>4</v>
       </c>
       <c r="D3" s="1"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -547,8 +584,11 @@
       <c r="C4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -558,8 +598,11 @@
       <c r="C5" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -567,10 +610,16 @@
         <v>1790</v>
       </c>
       <c r="C6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -580,8 +629,14 @@
       <c r="C7" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -594,8 +649,11 @@
       <c r="D8" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -608,8 +666,11 @@
       <c r="D9" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -622,8 +683,11 @@
       <c r="D10" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -636,8 +700,11 @@
       <c r="D11" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12" t="s">
         <v>16</v>
       </c>
@@ -650,9 +717,29 @@
       <c r="D12" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="E12" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13">
+        <v>620</v>
+      </c>
+      <c r="C13" t="s">
+        <v>3</v>
+      </c>
+      <c r="E13" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="3:4">
       <c r="C17" s="1"/>
+    </row>
+    <row r="19" spans="3:4">
+      <c r="D19" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
